--- a/results_method1_and_2/method_entropies/KLd_JSd_pitch.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_pitch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/pitch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="8_{C5299D97-77F4-4B2A-B423-9E23C601F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F8823A-43FC-4830-86E3-805E99CD0397}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="8_{C5299D97-77F4-4B2A-B423-9E23C601F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD062D0-C43C-426A-A007-61D8EE29ADAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3ED24930-B42E-48B4-96F2-9A09EE378CDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3ED24930-B42E-48B4-96F2-9A09EE378CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="23">
   <si>
     <t>KL-divergence</t>
   </si>
@@ -101,6 +101,9 @@
   <si>
     <t>echos_pld</t>
   </si>
+  <si>
+    <t>scale</t>
+  </si>
 </sst>
 </file>
 
@@ -158,16 +161,8 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,9 +170,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -195,7 +202,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -299,6 +306,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11028928139146209"/>
+                  <c:y val="1.6238334791484354E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.868867796553893E-3"/>
+                  <c:y val="-7.6354257801108188E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2873346307369213E-2"/>
+                  <c:y val="-4.8576480023330419E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -425,6 +498,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1450181645969585E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9256410362831023E-2"/>
+                  <c:y val="6.7164260717410246E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.7957502423064708E-4"/>
+                  <c:y val="3.01272236803732E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -551,6 +690,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12693460985381599"/>
+                  <c:y val="-5.3206109652960049E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.2547067287538869E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3970231948938598E-2"/>
+                  <c:y val="1.1608705161854768E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5BF3-4B3F-80B8-567907B2FBD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -850,7 +1055,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -954,8 +1159,128 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
-            <c:extLst/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11052927579089046"/>
+                  <c:y val="-4.394685039370079E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5703377969978028E-2"/>
+                  <c:y val="-9.0243146689997084E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2923119729960202E-2"/>
+                  <c:y val="-1.616907261592301E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1026,8 +1351,128 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
-            <c:extLst/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0484627470571428E-2"/>
+                  <c:y val="6.7164260717410246E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3264885710589122E-2"/>
+                  <c:y val="7.1793890347039951E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2143852750518235E-2"/>
+                  <c:y val="5.3275371828521351E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1098,8 +1543,128 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:delete val="1"/>
-            <c:extLst/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11330953403090815"/>
+                  <c:y val="3.9386482939632546E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11052927579089043"/>
+                  <c:y val="-0.10876166520851568"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2923119729960202E-2"/>
+                  <c:y val="-6.709499854184893E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1343,7 +1908,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1451,8 +2016,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11294534821555216"/>
-                  <c:y val="2.3494459025955091E-3"/>
+                  <c:x val="-0.11084563295135508"/>
+                  <c:y val="-4.394685039370079E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1473,8 +2038,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1163409817463694E-2"/>
-                  <c:y val="-9.487277631962672E-2"/>
+                  <c:x val="-8.0175258030720384E-2"/>
+                  <c:y val="-8.0983887430737825E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1495,8 +2060,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1764153928403871E-2"/>
-                  <c:y val="1.6238334791484399E-2"/>
+                  <c:x val="2.0200514436811125E-2"/>
+                  <c:y val="-7.1724628171478566E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1594,13 +2159,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.28299999999999997</c:v>
+                  <c:v>0.33100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.253</c:v>
+                  <c:v>0.309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.217</c:v>
+                  <c:v>0.26300000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,8 +2208,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.5832869627835452E-2"/>
-                  <c:y val="6.2534631087780526E-2"/>
+                  <c:x val="-9.6904553441975697E-2"/>
+                  <c:y val="3.4756853310002916E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1665,8 +2230,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1976258278506979E-2"/>
-                  <c:y val="9.9571668124817728E-2"/>
+                  <c:x val="-6.9022394423216921E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1687,8 +2252,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4263035579850292E-2"/>
-                  <c:y val="9.4942038495188022E-2"/>
+                  <c:x val="-3.1994887246305385E-2"/>
+                  <c:y val="5.7905001458151147E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1786,13 +2351,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17299999999999999</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17299999999999999</c:v>
+                  <c:v>0.191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16400000000000001</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,8 +2400,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10740270367582079"/>
-                  <c:y val="-3.0057961504811898E-2"/>
+                  <c:x val="-0.10526920114760334"/>
+                  <c:y val="-2.2801837270341207E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1857,8 +2422,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.631741459635805E-2"/>
-                  <c:y val="-9.9502405949256342E-2"/>
+                  <c:x val="-1.6046292287575269E-2"/>
+                  <c:y val="-5.3206109652960132E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1872,6 +2437,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-CDD4-49A1-8618-2EBDA57F5884}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7412298534935144E-2"/>
+                  <c:y val="-1.616907261592301E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CFA6-4341-AAAD-58CF2DB7EB61}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1956,13 +2543,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28599999999999998</c:v>
+                  <c:v>0.28499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.247</c:v>
+                  <c:v>0.25900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2174,7 +2761,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2279,11 +2866,55 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11363384885323098"/>
+                  <c:y val="-5.3206109652960049E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5DD6-4253-8281-9D70EBF5A82F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2293099011961663E-2"/>
+                  <c:y val="5.7905001458151063E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5DD6-4253-8281-9D70EBF5A82F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.2594349274316388E-3"/>
-                  <c:y val="-1.616907261592301E-2"/>
+                  <c:x val="2.0200514436811125E-2"/>
+                  <c:y val="2.3494459025955091E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2381,13 +3012,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>0.42699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35899999999999999</c:v>
+                  <c:v>0.371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>0.28299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,8 +3061,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2293099011961663E-2"/>
-                  <c:y val="5.3275371828521351E-2"/>
+                  <c:x val="-5.5081314913837567E-2"/>
+                  <c:y val="5.7905001458151063E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2452,8 +3083,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6716667208209911E-2"/>
-                  <c:y val="3.4756853310002833E-2"/>
+                  <c:x val="-4.9504883110085787E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2474,8 +3105,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5563803600706406E-2"/>
-                  <c:y val="5.3275371828521351E-2"/>
+                  <c:x val="-2.105212778195786E-3"/>
+                  <c:y val="4.4016112569262175E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2573,13 +3204,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14699999999999999</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18099999999999999</c:v>
+                  <c:v>0.183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2622,8 +3253,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11921028065698273"/>
-                  <c:y val="2.3494459025955091E-3"/>
+                  <c:x val="-0.10526920114760334"/>
+                  <c:y val="6.9790755322250535E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2644,8 +3275,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1140235404458159E-2"/>
-                  <c:y val="-9.487277631962672E-2"/>
+                  <c:x val="-2.9987371796954654E-2"/>
+                  <c:y val="-6.7094998541848971E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2666,8 +3297,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5563803600706406E-2"/>
-                  <c:y val="-6.709499854184893E-2"/>
+                  <c:x val="1.7412298534935144E-2"/>
+                  <c:y val="-3.931722076407116E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2765,13 +3396,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.40699999999999997</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36799999999999999</c:v>
+                  <c:v>0.38300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28399999999999997</c:v>
+                  <c:v>0.29599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2983,7 +3614,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3088,11 +3719,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0430664916885493E-2"/>
-                  <c:y val="5.7905001458151063E-2"/>
+                  <c:x val="-9.3763998250218722E-2"/>
+                  <c:y val="3.01272236803732E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3105,16 +3736,16 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-C9D6-41C9-9BD1-23934A7419BB}"/>
+                  <c16:uniqueId val="{00000002-63B0-4D34-85DF-591731122D84}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1875109361329833E-2"/>
-                  <c:y val="7.1793890347039951E-2"/>
+                  <c:x val="-8.265288713910772E-2"/>
+                  <c:y val="3.4756853310002916E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3127,7 +3758,29 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-C9D6-41C9-9BD1-23934A7419BB}"/>
+                  <c16:uniqueId val="{00000009-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.097331583552158E-3"/>
+                  <c:y val="-1.1539442986293381E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-63B0-4D34-85DF-591731122D84}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3257,138 +3910,12 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$K$27:$K$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2-grams</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3-grams</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4-grams</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.57199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29599999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C9D6-41C9-9BD1-23934A7419BB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pro-karykis -- balasis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11043066491688541"/>
-                  <c:y val="-1.616907261592301E-2"/>
+                  <c:x val="-6.5986220472440973E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3401,7 +3928,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-C9D6-41C9-9BD1-23934A7419BB}"/>
+                  <c16:uniqueId val="{00000004-63B0-4D34-85DF-591731122D84}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3409,8 +3936,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1791557305336731E-2"/>
-                  <c:y val="-4.8576480023330419E-2"/>
+                  <c:x val="-6.0430664916885493E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3423,7 +3950,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-C9D6-41C9-9BD1-23934A7419BB}"/>
+                  <c16:uniqueId val="{00000003-63B0-4D34-85DF-591731122D84}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3431,8 +3958,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1791557305336833E-2"/>
-                  <c:y val="6.9790755322251385E-3"/>
+                  <c:x val="-4.6541776027996501E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3445,7 +3972,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-C9D6-41C9-9BD1-23934A7419BB}"/>
+                  <c16:uniqueId val="{00000005-63B0-4D34-85DF-591731122D84}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3525,18 +4052,210 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C9D6-41C9-9BD1-23934A7419BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pro-karykis -- balasis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8208442694663172E-2"/>
+                  <c:y val="-3.9317220764071202E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6528871391077138E-3"/>
+                  <c:y val="-6.7094998541848971E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.097331583552158E-3"/>
+                  <c:y val="-5.7835739282589678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$27:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2-grams</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-grams</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-grams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.38700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39400000000000002</c:v>
+                  <c:v>0.34699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29899999999999999</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3748,7 +4467,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3853,11 +4572,33 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5430664916885418E-2"/>
+                  <c:y val="-3.4687591134441573E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AAD1-4A78-ADDC-82B67E854D76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.4423913322027122E-2"/>
-                  <c:y val="-9.0243146689997125E-2"/>
+                  <c:x val="-3.5430664916885492E-2"/>
+                  <c:y val="-4.8576480023330419E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3871,6 +4612,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-4C19-4CEA-80C9-4EF0F996FB04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.734711286089239E-2"/>
+                  <c:y val="-2.0798702245552639E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AAD1-4A78-ADDC-82B67E854D76}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3955,13 +4718,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.34200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27900000000000003</c:v>
+                  <c:v>0.308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23899999999999999</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4004,8 +4767,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2170486655719529E-2"/>
-                  <c:y val="6.7164260717410329E-2"/>
+                  <c:x val="-5.7652887139107614E-2"/>
+                  <c:y val="5.7905001458151147E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4026,8 +4789,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3825451655854365E-2"/>
-                  <c:y val="7.1793890347039951E-2"/>
+                  <c:x val="-5.2097331583552058E-2"/>
+                  <c:y val="5.7905001458150897E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4048,8 +4811,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0236282766581778E-3"/>
-                  <c:y val="3.01272236803732E-2"/>
+                  <c:x val="-3.1875109361329833E-2"/>
+                  <c:y val="5.3275371828521351E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4147,10 +4910,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.152</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.161</c:v>
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.17</c:v>
@@ -4196,8 +4959,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1244941233212188"/>
-                  <c:y val="-3.0057961504811898E-2"/>
+                  <c:x val="-9.9319553805774272E-2"/>
+                  <c:y val="3.4756853310002916E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4218,8 +4981,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.600866832297004E-2"/>
-                  <c:y val="-5.7835739282589761E-2"/>
+                  <c:x val="-5.2097331583552058E-2"/>
+                  <c:y val="5.7905001458151063E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4240,8 +5003,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6843220009510173E-2"/>
-                  <c:y val="-2.0798702245552723E-2"/>
+                  <c:x val="6.804461942258236E-4"/>
+                  <c:y val="1.1608705161854768E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4339,13 +5102,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.312</c:v>
+                  <c:v>0.33200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26500000000000001</c:v>
+                  <c:v>0.28399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>0.24299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4557,7 +5320,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4662,11 +5425,33 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0190392780097592E-2"/>
+                  <c:y val="-5.3206109652960049E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0E95-425A-B88E-82B9696238D8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0236282766581778E-3"/>
-                  <c:y val="-6.709499854184893E-2"/>
+                  <c:x val="-7.9859127055718335E-2"/>
+                  <c:y val="2.5497594050743658E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4687,8 +5472,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.6636333231047439E-3"/>
-                  <c:y val="-3.0057961504811898E-2"/>
+                  <c:x val="2.2898085794290951E-2"/>
+                  <c:y val="-6.9098133566637505E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4786,13 +5571,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.41899999999999998</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38</c:v>
+                  <c:v>0.38100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30599999999999999</c:v>
+                  <c:v>0.309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4832,11 +5617,33 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0418573273284135E-2"/>
+                  <c:y val="4.8645742198891805E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0E95-425A-B88E-82B9696238D8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3825451655854365E-2"/>
-                  <c:y val="5.3275371828521434E-2"/>
+                  <c:x val="-5.2086907366526602E-2"/>
+                  <c:y val="5.790500145815098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4857,8 +5664,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0445311656393074E-2"/>
-                  <c:y val="3.9386482939632546E-2"/>
+                  <c:x val="-4.6532463428688269E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4956,13 +5763,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.312</c:v>
+                  <c:v>0.311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.28100000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5005,8 +5812,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11893076665464193"/>
-                  <c:y val="6.9790755322251385E-3"/>
+                  <c:x val="-0.10763134674490997"/>
+                  <c:y val="-1.1539442986293422E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5027,8 +5834,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10502237498819982"/>
-                  <c:y val="-9.0243146689997084E-2"/>
+                  <c:x val="-1.0428577832739074E-2"/>
+                  <c:y val="-5.320610965296009E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5042,6 +5849,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0C3A-4916-A7F7-4F19EF560B2D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4006973669967626E-2"/>
+                  <c:y val="-5.320610965296009E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0E95-425A-B88E-82B9696238D8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5126,13 +5955,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.40600000000000003</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39800000000000002</c:v>
+                  <c:v>0.40200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33100000000000002</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5344,7 +6173,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5452,8 +6281,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11893076665464193"/>
-                  <c:y val="8.1053149606299127E-2"/>
+                  <c:x val="-9.6541754912127103E-2"/>
+                  <c:y val="2.0867964421114028E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5474,8 +6303,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1642234988738687E-2"/>
-                  <c:y val="8.105314960629921E-2"/>
+                  <c:x val="-0.10209730925255703"/>
+                  <c:y val="-4.3946850393700873E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5496,8 +6325,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.2447583433375186E-3"/>
-                  <c:y val="-2.2801837270342057E-3"/>
+                  <c:x val="1.2569332333916812E-2"/>
+                  <c:y val="-7.1724628171478566E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5595,13 +6424,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.215</c:v>
+                  <c:v>0.248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.219</c:v>
+                  <c:v>0.248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20200000000000001</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5644,8 +6473,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.6078878322161694E-2"/>
-                  <c:y val="-9.9502405949256342E-2"/>
+                  <c:x val="-5.2097320188687624E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5666,8 +6495,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11614908832135359"/>
-                  <c:y val="-0.11802092446777486"/>
+                  <c:x val="-5.2097320188687624E-2"/>
+                  <c:y val="5.3275371828521434E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5688,8 +6517,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.6636333231047439E-3"/>
-                  <c:y val="0.10420129775444728"/>
+                  <c:x val="-4.8751082950331814E-3"/>
+                  <c:y val="5.3275371828521351E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5787,13 +6616,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.251</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.224</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19400000000000001</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5836,8 +6665,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11893076665464193"/>
-                  <c:y val="-1.616907261592301E-2"/>
+                  <c:x val="-9.6541754912127103E-2"/>
+                  <c:y val="-4.8576480023330419E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5858,8 +6687,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.2406576676087139E-2"/>
-                  <c:y val="-6.2465368912219307E-2"/>
+                  <c:x val="6.80446045396753E-4"/>
+                  <c:y val="-5.3206109652960049E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5880,8 +6709,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1808115009914282E-2"/>
-                  <c:y val="-8.5613517060367447E-2"/>
+                  <c:x val="6.2360003858265853E-3"/>
+                  <c:y val="-3.0057961504811898E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5979,13 +6808,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.24099999999999999</c:v>
+                  <c:v>0.24299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24099999999999999</c:v>
+                  <c:v>0.252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10950,7 +11779,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11246,10 +12075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A346A115-14B5-481B-955F-3ACECE3B790A}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11272,49 +12101,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="1"/>
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11322,140 +12151,140 @@
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>10.18</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>2.78</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>10.95</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>9.23</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <v>2.73</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="2">
         <v>10.69</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="2">
         <v>0.39900000000000002</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="2">
         <v>0.23100000000000001</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="2">
         <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>32.549999999999997</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>12.91</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>31.98</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>30.83</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="2">
         <v>12.5</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="2">
         <v>29.2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="2">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="2">
         <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>61.19</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>34.92</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>61.09</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>59.84</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>57.53</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>33.520000000000003</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="2">
         <v>0.28199999999999997</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="2">
         <v>0.214</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="2">
         <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11463,140 +12292,140 @@
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>4.83</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>3.92</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>4.5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="2">
         <v>1.08</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <v>3.81</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="2">
         <v>0.27700000000000002</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="2">
         <v>0.16300000000000001</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="2">
         <v>0.252</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="2">
         <v>15.45</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="2">
         <v>7.1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
         <v>17.36</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
         <v>15.09</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="2">
         <v>7.23</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="2">
         <v>16.47</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="2">
         <v>0.22800000000000001</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="2">
         <v>0.184</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="2">
         <v>0.248</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <v>37.76</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>22.15</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <v>41.18</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <v>36.590000000000003</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="2">
         <v>22.29</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="2">
         <v>38.61</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="2">
         <v>0.20599999999999999</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="2">
         <v>0.18099999999999999</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="2">
         <v>0.215</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11604,140 +12433,140 @@
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
-        <v>4.49</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4.83</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4.13</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="C15" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="1">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.29399999999999998</v>
+      <c r="L15" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.308</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
-        <v>15.87</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6.85</v>
-      </c>
-      <c r="E16" s="1">
-        <v>18.45</v>
-      </c>
-      <c r="F16" s="1">
-        <v>17.12</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6.72</v>
-      </c>
-      <c r="H16" s="1">
-        <v>19.7</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="C16" s="2">
+        <v>19.61</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>18.77</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="H16" s="2">
+        <v>16.27</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.28599999999999998</v>
+      <c r="L16" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
-        <v>38.21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>17.2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>45.48</v>
-      </c>
-      <c r="F17" s="1">
-        <v>39.39</v>
-      </c>
-      <c r="G17" s="1">
-        <v>17.27</v>
-      </c>
-      <c r="H17" s="1">
-        <v>46.18</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="C17" s="2">
+        <v>43.7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>41.16</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45.34</v>
+      </c>
+      <c r="G17" s="2">
+        <v>18.36</v>
+      </c>
+      <c r="H17" s="2">
+        <v>41.53</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="1">
-        <v>0.217</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0.247</v>
+      <c r="L17" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11745,140 +12574,140 @@
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="F21" s="1">
-        <v>9.58</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H21" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="C21" s="2">
+        <v>10.46</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10.26</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="H21" s="2">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="1">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.40699999999999997</v>
+      <c r="L21" s="2">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1">
-        <v>32.99</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="2">
+        <v>35.04</v>
+      </c>
+      <c r="D22" s="2">
         <v>8.41</v>
       </c>
-      <c r="E22" s="1">
-        <v>34.25</v>
-      </c>
-      <c r="F22" s="1">
-        <v>33.659999999999997</v>
-      </c>
-      <c r="G22" s="1">
-        <v>8.24</v>
-      </c>
-      <c r="H22" s="1">
-        <v>34.71</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="E22" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F22" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="H22" s="2">
+        <v>36.68</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="1">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="L22" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="M22" s="2">
         <v>0.19400000000000001</v>
       </c>
-      <c r="N22" s="1">
-        <v>0.36799999999999999</v>
+      <c r="N22" s="2">
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1">
-        <v>64.180000000000007</v>
-      </c>
-      <c r="D23" s="1">
-        <v>24.66</v>
-      </c>
-      <c r="E23" s="1">
-        <v>70.48</v>
-      </c>
-      <c r="F23" s="1">
-        <v>65.2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>23.74</v>
-      </c>
-      <c r="H23" s="1">
-        <v>69.290000000000006</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="C23" s="2">
+        <v>66.3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>73.89</v>
+      </c>
+      <c r="F23" s="2">
+        <v>66.95</v>
+      </c>
+      <c r="G23" s="2">
+        <v>23.59</v>
+      </c>
+      <c r="H23" s="2">
+        <v>71.73</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="1">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.28399999999999997</v>
+      <c r="L23" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="2" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11886,548 +12715,607 @@
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>8.41</v>
       </c>
-      <c r="D27" s="1">
-        <v>22.47</v>
-      </c>
-      <c r="E27" s="1">
-        <v>13.34</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="D27" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="F27" s="2">
         <v>7.98</v>
       </c>
-      <c r="G27" s="1">
-        <v>22.53</v>
-      </c>
-      <c r="H27" s="1">
-        <v>13.74</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="G27" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="2">
         <v>0.38500000000000001</v>
       </c>
-      <c r="M27" s="1">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.51500000000000001</v>
+      <c r="M27" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>27.11</v>
       </c>
-      <c r="D28" s="1">
-        <v>44.56</v>
-      </c>
-      <c r="E28" s="1">
-        <v>37.72</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="D28" s="2">
+        <v>10.67</v>
+      </c>
+      <c r="E28" s="2">
+        <v>25.21</v>
+      </c>
+      <c r="F28" s="2">
         <v>25.24</v>
       </c>
-      <c r="G28" s="1">
-        <v>43.87</v>
-      </c>
-      <c r="H28" s="1">
-        <v>38.49</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="G28" s="2">
+        <v>11.63</v>
+      </c>
+      <c r="H28" s="2">
+        <v>25.33</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="2">
         <v>0.33200000000000002</v>
       </c>
-      <c r="M28" s="1">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.39400000000000002</v>
+      <c r="M28" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>49.45</v>
       </c>
-      <c r="D29" s="1">
-        <v>65.510000000000005</v>
-      </c>
-      <c r="E29" s="1">
-        <v>66.77</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="D29" s="2">
+        <v>28.67</v>
+      </c>
+      <c r="E29" s="2">
+        <v>52.45</v>
+      </c>
+      <c r="F29" s="2">
         <v>48.86</v>
       </c>
-      <c r="G29" s="1">
-        <v>63.97</v>
-      </c>
-      <c r="H29" s="1">
-        <v>67.28</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="G29" s="2">
+        <v>31.15</v>
+      </c>
+      <c r="H29" s="2">
+        <v>51.64</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="2">
         <v>0.27</v>
       </c>
-      <c r="M29" s="1">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.29899999999999999</v>
+      <c r="M29" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="2" t="s">
+      <c r="K32" s="2"/>
+      <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5.08</v>
-      </c>
-      <c r="F33" s="1">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="H33" s="1">
-        <v>5.04</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="C33" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5.31</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="H33" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.152</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0.312</v>
+      <c r="L33" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="1">
-        <v>20.09</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5.81</v>
-      </c>
-      <c r="E34" s="1">
-        <v>20.46</v>
-      </c>
-      <c r="F34" s="1">
-        <v>18.89</v>
-      </c>
-      <c r="G34" s="1">
-        <v>5.52</v>
-      </c>
-      <c r="H34" s="1">
-        <v>20.21</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="C34" s="2">
+        <v>21.52</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5.93</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20.99</v>
+      </c>
+      <c r="F34" s="2">
+        <v>19.91</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="H34" s="2">
+        <v>20.85</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="1">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.161</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0.26500000000000001</v>
+      <c r="L34" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="1">
-        <v>47.82</v>
-      </c>
-      <c r="D35" s="1">
-        <v>19.61</v>
-      </c>
-      <c r="E35" s="1">
-        <v>46.28</v>
-      </c>
-      <c r="F35" s="1">
-        <v>47.97</v>
-      </c>
-      <c r="G35" s="1">
-        <v>19.170000000000002</v>
-      </c>
-      <c r="H35" s="1">
-        <v>47</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="C35" s="2">
+        <v>50.72</v>
+      </c>
+      <c r="D35" s="2">
+        <v>18.63</v>
+      </c>
+      <c r="E35" s="2">
+        <v>47.83</v>
+      </c>
+      <c r="F35" s="2">
+        <v>50.45</v>
+      </c>
+      <c r="G35" s="2">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="H35" s="2">
+        <v>48.63</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="1">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="M35" s="1">
+      <c r="L35" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="M35" s="2">
         <v>0.17</v>
       </c>
-      <c r="N35" s="1">
-        <v>0.22800000000000001</v>
+      <c r="N35" s="2">
+        <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2" t="s">
+      <c r="K38" s="2"/>
+      <c r="L38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N38" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="1">
-        <v>8.83</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="2">
+        <v>8.89</v>
+      </c>
+      <c r="D39" s="2">
         <v>2.16</v>
       </c>
-      <c r="E39" s="1">
-        <v>7.49</v>
-      </c>
-      <c r="F39" s="1">
-        <v>8.99</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1.95</v>
-      </c>
-      <c r="H39" s="1">
-        <v>7.47</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="E39" s="2">
+        <v>7.55</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="H39" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="1">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0.40600000000000003</v>
+      <c r="L39" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="1">
-        <v>31.93</v>
-      </c>
-      <c r="D40" s="1">
-        <v>19.649999999999999</v>
-      </c>
-      <c r="E40" s="1">
-        <v>31.96</v>
-      </c>
-      <c r="F40" s="1">
-        <v>32.869999999999997</v>
-      </c>
-      <c r="G40" s="1">
-        <v>16.68</v>
-      </c>
-      <c r="H40" s="1">
-        <v>30.37</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="C40" s="2">
+        <v>32.11</v>
+      </c>
+      <c r="D40" s="2">
+        <v>19.64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>32.68</v>
+      </c>
+      <c r="F40" s="2">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="G40" s="2">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="H40" s="2">
+        <v>31.11</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0.312</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0.39800000000000002</v>
+      <c r="L40" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="1">
-        <v>64.14</v>
-      </c>
-      <c r="D41" s="1">
-        <v>40.81</v>
-      </c>
-      <c r="E41" s="1">
-        <v>68.86</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="C41" s="2">
         <v>64.95</v>
       </c>
-      <c r="G41" s="1">
-        <v>37.409999999999997</v>
-      </c>
-      <c r="H41" s="1">
-        <v>66.11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="D41" s="2">
+        <v>41.72</v>
+      </c>
+      <c r="E41" s="2">
+        <v>71.02</v>
+      </c>
+      <c r="F41" s="2">
+        <v>65.77</v>
+      </c>
+      <c r="G41" s="2">
+        <v>38.35</v>
+      </c>
+      <c r="H41" s="2">
+        <v>68.14</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0.33100000000000002</v>
+      <c r="L41" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="2" t="s">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="2" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="N44" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="P44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="1">
-        <v>2.68</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4</v>
-      </c>
-      <c r="E45" s="1">
-        <v>3.49</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2.46</v>
-      </c>
-      <c r="G45" s="1">
-        <v>3.92</v>
-      </c>
-      <c r="H45" s="1">
-        <v>3.44</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="C45" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0.251</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0.24099999999999999</v>
+      <c r="L45" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="T45" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="U45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="W45" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="1">
-        <v>15.35</v>
-      </c>
-      <c r="D46" s="1">
-        <v>17.03</v>
-      </c>
-      <c r="E46" s="1">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="F46" s="1">
-        <v>14.44</v>
-      </c>
-      <c r="G46" s="1">
-        <v>17.54</v>
-      </c>
-      <c r="H46" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="C46" s="2">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D46" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="E46" s="2">
+        <v>18.36</v>
+      </c>
+      <c r="F46" s="2">
+        <v>15.86</v>
+      </c>
+      <c r="G46" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="H46" s="2">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L46" s="1">
-        <v>0.219</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0.24099999999999999</v>
+      <c r="L46" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.252</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="1">
-        <v>42.14</v>
-      </c>
-      <c r="D47" s="1">
-        <v>42.01</v>
-      </c>
-      <c r="E47" s="1">
-        <v>45.3</v>
-      </c>
-      <c r="F47" s="1">
-        <v>40.57</v>
-      </c>
-      <c r="G47" s="1">
-        <v>42.27</v>
-      </c>
-      <c r="H47" s="1">
-        <v>41.72</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="C47" s="2">
+        <v>42.18</v>
+      </c>
+      <c r="D47" s="2">
+        <v>27.17</v>
+      </c>
+      <c r="E47" s="2">
+        <v>46.23</v>
+      </c>
+      <c r="F47" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="G47" s="2">
+        <v>25.86</v>
+      </c>
+      <c r="H47" s="2">
+        <v>42.84</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="1">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0.20599999999999999</v>
+      <c r="L47" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.21299999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="P44:Z44"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
+  <conditionalFormatting sqref="P45:U45 L45:N47 L39:N41 L33:N35 L27:N29 L21:N23 L15:N17 L9:N11 L3:N5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/results_method1_and_2/method_entropies/KLd_JSd_pitch.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_pitch.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="8_{C5299D97-77F4-4B2A-B423-9E23C601F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD062D0-C43C-426A-A007-61D8EE29ADAC}"/>
+  <xr:revisionPtr revIDLastSave="545" documentId="8_{C5299D97-77F4-4B2A-B423-9E23C601F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DEF7B58-DDAF-460C-9C71-1D654319D704}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3ED24930-B42E-48B4-96F2-9A09EE378CDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3ED24930-B42E-48B4-96F2-9A09EE378CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="evaluation_pitch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="25">
   <si>
     <t>KL-divergence</t>
   </si>
@@ -104,6 +105,12 @@
   <si>
     <t>scale</t>
   </si>
+  <si>
+    <t>evaluation_of_karykis</t>
+  </si>
+  <si>
+    <t>scale_of_evaluation</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,11 +162,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +189,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12077,8 +12100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A346A115-14B5-481B-955F-3ACECE3B790A}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44:Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12101,20 +12124,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -12148,7 +12171,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -12186,7 +12209,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -12222,7 +12245,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -12289,7 +12312,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -12327,7 +12350,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -12363,7 +12386,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -12430,7 +12453,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -12468,7 +12491,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -12504,7 +12527,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -12571,7 +12594,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -12609,7 +12632,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -12645,7 +12668,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -12712,7 +12735,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -12750,7 +12773,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
@@ -12786,7 +12809,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
@@ -12853,7 +12876,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -12891,7 +12914,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
@@ -12927,7 +12950,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
@@ -12994,7 +13017,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -13032,7 +13055,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
@@ -13068,7 +13091,7 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
         <v>14</v>
       </c>
@@ -13133,22 +13156,22 @@
       <c r="N44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -13219,7 +13242,7 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
@@ -13255,7 +13278,7 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="3" t="s">
         <v>14</v>
       </c>
@@ -13319,4 +13342,780 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464147A-4ECD-4B1E-8457-11B58279E28B}">
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D44" activeCellId="8" sqref="D2:D5 D8:D11 D14:D17 D20:D23 D26:D29 D32:D35 D38:D40 D41 D44:D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <f>ROUND(B3/C3,3)</f>
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="T3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F4" s="7">
+        <f>ROUND(B4/C4,3)</f>
+        <v>1.5529999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F5" s="7">
+        <f>ROUND(B5/C5,3)</f>
+        <v>1.3180000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="F9" s="7">
+        <f>ROUND(B9/C9,3)</f>
+        <v>1.6990000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="F10" s="7">
+        <f>ROUND(B10/C10,3)</f>
+        <v>1.2390000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="F11" s="7">
+        <f>ROUND(B11/C11,3)</f>
+        <v>1.1379999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="F15" s="7">
+        <f>ROUND(B15/C15,3)</f>
+        <v>1.7509999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F16" s="7">
+        <f>ROUND(B16/C16,3)</f>
+        <v>1.6180000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F17" s="7">
+        <f>ROUND(B17/C17,3)</f>
+        <v>1.4610000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F21" s="7">
+        <f>ROUND(B21/C21,3)</f>
+        <v>2.9249999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F22" s="7">
+        <f>ROUND(B22/C22,3)</f>
+        <v>1.9119999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F23" s="7">
+        <f>ROUND(B23/C23,3)</f>
+        <v>1.546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F27" s="7">
+        <f>ROUND(B27/C27,3)</f>
+        <v>1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F28" s="7">
+        <f>ROUND(B28/C28,3)</f>
+        <v>1.3120000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F29" s="7">
+        <f>ROUND(B29/C29,3)</f>
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F33" s="7">
+        <f>ROUND(B33/C33,3)</f>
+        <v>2.1779999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="F34" s="7">
+        <f>ROUND(B34/C34,3)</f>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F35" s="7">
+        <f>ROUND(B35/C35,3)</f>
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F39" s="7">
+        <f>ROUND(B39/C39,3)</f>
+        <v>1.972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F40" s="7">
+        <f>ROUND(B40/C40,3)</f>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F41" s="7">
+        <f>ROUND(B41/C41,3)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F45" s="7">
+        <f>ROUND(B45/C45,3)</f>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="F46" s="7">
+        <f>ROUND(B46/C46,3)</f>
+        <v>1.417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F47" s="7">
+        <f>ROUND(B47/C47,3)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="H2:T2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51 B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47 H3:T3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3 F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results_method1_and_2/method_entropies/KLd_JSd_pitch.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_pitch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="545" documentId="8_{C5299D97-77F4-4B2A-B423-9E23C601F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DEF7B58-DDAF-460C-9C71-1D654319D704}"/>
+  <xr:revisionPtr revIDLastSave="775" documentId="8_{C5299D97-77F4-4B2A-B423-9E23C601F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD21B80-BCBB-4565-873F-FA2D48A443AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3ED24930-B42E-48B4-96F2-9A09EE378CDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3ED24930-B42E-48B4-96F2-9A09EE378CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="30">
   <si>
     <t>KL-divergence</t>
   </si>
@@ -111,6 +111,21 @@
   <si>
     <t>scale_of_evaluation</t>
   </si>
+  <si>
+    <t>5-grams</t>
+  </si>
+  <si>
+    <t>case_study</t>
+  </si>
+  <si>
+    <t>Ερώτηση</t>
+  </si>
+  <si>
+    <t>πόσα n-grams δεν έχουν βρεθεί στο κείμενο</t>
+  </si>
+  <si>
+    <t>Για ποιο λόγο έχουμε πτωτικές τιμές των JSd; επειδή δεν βρίσκονται όλο και περισσότερα n-grams ή επειδή αυξάνεται πολύ ο πίνκας με πολλά noise κελιά;</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -171,11 +186,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,18 +233,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -225,7 +275,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -307,7 +357,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -424,14 +474,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -454,7 +502,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$3:$K$5</c:f>
+              <c:f>Sheet1!$N$3:$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -471,7 +519,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$5</c:f>
+              <c:f>Sheet1!$O$3:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -499,7 +547,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -616,14 +664,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -646,7 +692,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$3:$K$5</c:f>
+              <c:f>Sheet1!$N$3:$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -663,7 +709,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$5</c:f>
+              <c:f>Sheet1!$P$3:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -691,7 +737,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -808,14 +854,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -838,7 +882,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$3:$K$5</c:f>
+              <c:f>Sheet1!$N$3:$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -855,7 +899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$5</c:f>
+              <c:f>Sheet1!$Q$3:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1078,7 +1122,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1160,7 +1204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1186,8 +1230,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11052927579089046"/>
-                  <c:y val="-4.394685039370079E-2"/>
+                  <c:x val="-5.1880448161480672E-2"/>
+                  <c:y val="-7.6354257801108286E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1208,8 +1252,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5703377969978028E-2"/>
-                  <c:y val="-9.0243146689997084E-2"/>
+                  <c:x val="-1.5919669152120682E-2"/>
+                  <c:y val="-8.0983887430737908E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1230,8 +1274,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2923119729960202E-2"/>
-                  <c:y val="-1.616907261592301E-2"/>
+                  <c:x val="3.4438272375347766E-3"/>
+                  <c:y val="-5.7835739282589678E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1245,6 +1289,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6210278422684146E-3"/>
+                  <c:y val="-5.3206109652960049E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7FB1-4C4E-9B26-EFD83A2EC12B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1307,9 +1373,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$9:$K$11</c:f>
+              <c:f>Sheet1!$N$9:$N$12</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -1318,16 +1384,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$9:$L$11</c:f>
+              <c:f>Sheet1!$O$9:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.27700000000000002</c:v>
                 </c:pt>
@@ -1336,6 +1405,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,7 +1424,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1378,8 +1450,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0484627470571428E-2"/>
-                  <c:y val="6.7164260717410246E-2"/>
+                  <c:x val="-4.9114234391529898E-2"/>
+                  <c:y val="6.2534631087780609E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1400,8 +1472,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.3264885710589122E-2"/>
-                  <c:y val="7.1793890347039951E-2"/>
+                  <c:x val="-5.1880448161480672E-2"/>
+                  <c:y val="6.2534631087780693E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1422,8 +1494,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2143852750518235E-2"/>
-                  <c:y val="5.3275371828521351E-2"/>
+                  <c:x val="-5.1880448161480672E-2"/>
+                  <c:y val="8.1053149606299127E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1437,6 +1509,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7412875701382315E-2"/>
+                  <c:y val="5.790500145815098E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7FB1-4C4E-9B26-EFD83A2EC12B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1499,9 +1593,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$9:$K$11</c:f>
+              <c:f>Sheet1!$N$9:$N$12</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -1510,16 +1604,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$9:$M$11</c:f>
+              <c:f>Sheet1!$P$9:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.16300000000000001</c:v>
                 </c:pt>
@@ -1528,6 +1625,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,7 +1644,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1567,33 +1667,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11330953403090815"/>
-                  <c:y val="3.9386482939632546E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-7C5C-4204-848C-F6AF41510FF9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11052927579089043"/>
-                  <c:y val="-0.10876166520851568"/>
+                  <c:x val="-9.6173189067891976E-2"/>
+                  <c:y val="-0.11339129483814532"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1614,8 +1692,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2923119729960202E-2"/>
-                  <c:y val="-6.709499854184893E-2"/>
+                  <c:x val="-9.3373654710742257E-2"/>
+                  <c:y val="-7.6354257801108188E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1629,6 +1707,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-7C5C-4204-848C-F6AF41510FF9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2170763385697644E-2"/>
+                  <c:y val="-9.0243146689997084E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7FB1-4C4E-9B26-EFD83A2EC12B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1691,9 +1791,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$9:$K$11</c:f>
+              <c:f>Sheet1!$N$9:$N$12</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -1702,16 +1802,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$9:$N$11</c:f>
+              <c:f>Sheet1!$Q$9:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.252</c:v>
                 </c:pt>
@@ -1720,6 +1823,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,7 +2037,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2013,7 +2119,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2130,14 +2236,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2160,7 +2264,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$15:$K$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2177,18 +2281,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$15:$L$17</c:f>
+              <c:f>Sheet1!$O$15:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.33100000000000002</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.309</c:v>
+                  <c:v>0.308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26300000000000001</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2205,7 +2309,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2322,14 +2426,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2352,7 +2454,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$15:$K$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2369,18 +2471,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:f>Sheet1!$P$15:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.189</c:v>
+                  <c:v>0.17699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.191</c:v>
+                  <c:v>0.187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +2499,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2514,14 +2616,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2544,7 +2644,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$15:$K$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2561,7 +2661,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$15:$N$17</c:f>
+              <c:f>Sheet1!$Q$15:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2784,7 +2884,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2866,7 +2966,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3013,7 +3113,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$21:$K$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3030,7 +3130,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$21:$L$23</c:f>
+              <c:f>Sheet1!$O$21:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3058,7 +3158,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3205,7 +3305,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$21:$K$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3222,7 +3322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:f>Sheet1!$P$21:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3250,7 +3350,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3397,7 +3497,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$21:$K$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3414,7 +3514,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$21:$N$23</c:f>
+              <c:f>Sheet1!$Q$21:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3637,7 +3737,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3719,7 +3819,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3789,8 +3889,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.097331583552158E-3"/>
-                  <c:y val="-1.1539442986293381E-2"/>
+                  <c:x val="5.7013779527559053E-2"/>
+                  <c:y val="-5.7835739282589678E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3804,6 +3904,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1791557305336833E-2"/>
+                  <c:y val="1.6238334791484399E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-65F1-4E1F-BA60-5471406C4B5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3866,9 +3988,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$27:$K$29</c:f>
+              <c:f>Sheet1!$N$27:$N$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -3877,16 +3999,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$27:$L$29</c:f>
+              <c:f>Sheet1!$O$27:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.38500000000000001</c:v>
                 </c:pt>
@@ -3895,6 +4020,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,7 +4039,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3999,138 +4127,12 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$K$27:$K$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2-grams</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3-grams</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4-grams</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.253</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.248</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C9D6-41C9-9BD1-23934A7419BB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pro-karykis -- balasis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8208442694663172E-2"/>
-                  <c:y val="-3.9317220764071202E-2"/>
+                  <c:x val="-2.097331583552158E-3"/>
+                  <c:y val="9.0312408865558386E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4143,51 +4145,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-63B0-4D34-85DF-591731122D84}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.6528871391077138E-3"/>
-                  <c:y val="-6.7094998541848971E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-63B0-4D34-85DF-591731122D84}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.097331583552158E-3"/>
-                  <c:y val="-5.7835739282589678E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-63B0-4D34-85DF-591731122D84}"/>
+                  <c16:uniqueId val="{00000001-65F1-4E1F-BA60-5471406C4B5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4250,9 +4208,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$27:$K$29</c:f>
+              <c:f>Sheet1!$N$27:$N$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4261,16 +4219,239 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$27:$N$29</c:f>
+              <c:f>Sheet1!$P$27:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C9D6-41C9-9BD1-23934A7419BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pro-karykis -- balasis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8208442694663172E-2"/>
+                  <c:y val="-3.9317220764071202E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2652887139107613E-2"/>
+                  <c:y val="-9.0243146689997125E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7430664916885389E-2"/>
+                  <c:y val="-9.0243146689997125E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-63B0-4D34-85DF-591731122D84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0430664916885389E-2"/>
+                  <c:y val="-8.5613517060367447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-65F1-4E1F-BA60-5471406C4B5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$27:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2-grams</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-grams</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$27:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.38700000000000001</c:v>
                 </c:pt>
@@ -4279,6 +4460,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4490,7 +4674,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4572,7 +4756,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4660,6 +4844,28 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.9936029340999431E-3"/>
+                  <c:y val="2.3494459025955091E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D1EB-4F01-B85F-7118A37A769D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4719,9 +4925,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$33:$K$35</c:f>
+              <c:f>Sheet1!$N$33:$N$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4730,16 +4936,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$33:$L$35</c:f>
+              <c:f>Sheet1!$O$33:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.34200000000000003</c:v>
                 </c:pt>
@@ -4748,6 +4957,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4764,7 +4976,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4834,8 +5046,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1875109361329833E-2"/>
-                  <c:y val="5.3275371828521351E-2"/>
+                  <c:x val="-5.1276041479122625E-2"/>
+                  <c:y val="5.790500145815098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4849,6 +5061,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-4C19-4CEA-80C9-4EF0F996FB04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0295395915157195E-2"/>
+                  <c:y val="7.6423519976669671E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D1EB-4F01-B85F-7118A37A769D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4911,9 +5145,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$33:$K$35</c:f>
+              <c:f>Sheet1!$N$33:$N$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -4922,24 +5156,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$33:$M$35</c:f>
+              <c:f>Sheet1!$P$33:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4956,7 +5196,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5026,8 +5266,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.804461942258236E-4"/>
-                  <c:y val="1.1608705161854768E-2"/>
+                  <c:x val="-7.1380108099567532E-2"/>
+                  <c:y val="2.5497594050743658E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5041,6 +5281,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-4C19-4CEA-80C9-4EF0F996FB04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4536722842040405E-2"/>
+                  <c:y val="-7.1724628171478566E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D1EB-4F01-B85F-7118A37A769D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5103,9 +5365,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$33:$K$35</c:f>
+              <c:f>Sheet1!$N$33:$N$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -5114,24 +5376,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$33:$N$35</c:f>
+              <c:f>Sheet1!$Q$33:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.33200000000000002</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28399999999999997</c:v>
+                  <c:v>0.29699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24299999999999999</c:v>
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5343,7 +5611,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5425,7 +5693,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5572,7 +5840,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$39:$K$41</c:f>
+              <c:f>Sheet1!$N$39:$N$41</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5589,7 +5857,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$39:$L$41</c:f>
+              <c:f>Sheet1!$O$39:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5617,7 +5885,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5764,7 +6032,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$39:$K$41</c:f>
+              <c:f>Sheet1!$N$39:$N$41</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5781,7 +6049,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$39:$M$41</c:f>
+              <c:f>Sheet1!$P$39:$P$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5809,7 +6077,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5956,7 +6224,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$39:$K$41</c:f>
+              <c:f>Sheet1!$N$39:$N$41</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5973,7 +6241,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$39:$N$41</c:f>
+              <c:f>Sheet1!$Q$39:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6196,7 +6464,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6278,7 +6546,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6301,33 +6569,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.6541754912127103E-2"/>
-                  <c:y val="2.0867964421114028E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-513C-4306-9A4A-E2E10BE217A1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10209730925255703"/>
-                  <c:y val="-4.3946850393700873E-2"/>
+                  <c:x val="-1.8684491081803044E-2"/>
+                  <c:y val="-5.3206109652960049E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6348,8 +6594,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2569332333916812E-2"/>
-                  <c:y val="-7.1724628171478566E-2"/>
+                  <c:x val="-6.4932140247481465E-2"/>
+                  <c:y val="-6.7094998541849027E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6363,6 +6609,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-513C-4306-9A4A-E2E10BE217A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5571632521716871E-2"/>
+                  <c:y val="-5.7835739282589678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9EFD-43FA-8007-4B3EBB825EE6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6425,9 +6693,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$45:$K$47</c:f>
+              <c:f>Sheet1!$N$45:$N$48</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -6436,16 +6704,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$45:$L$47</c:f>
+              <c:f>Sheet1!$O$45:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.248</c:v>
                 </c:pt>
@@ -6454,6 +6725,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6470,7 +6744,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6496,8 +6770,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2097320188687624E-2"/>
-                  <c:y val="5.3275371828521434E-2"/>
+                  <c:x val="-5.7408599234883062E-2"/>
+                  <c:y val="7.1793890347039951E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6518,8 +6792,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2097320188687624E-2"/>
-                  <c:y val="5.3275371828521434E-2"/>
+                  <c:x val="-4.6344568334003057E-2"/>
+                  <c:y val="8.568277923592893E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6540,8 +6814,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8751082950331814E-3"/>
-                  <c:y val="5.3275371828521351E-2"/>
+                  <c:x val="-5.4642591509663059E-2"/>
+                  <c:y val="4.8645742198891721E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6555,6 +6829,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-513C-4306-9A4A-E2E10BE217A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0812552883563051E-2"/>
+                  <c:y val="6.2534631087780526E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9EFD-43FA-8007-4B3EBB825EE6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6617,9 +6913,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$45:$K$47</c:f>
+              <c:f>Sheet1!$N$45:$N$48</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -6628,16 +6924,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$45:$M$47</c:f>
+              <c:f>Sheet1!$P$45:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.157</c:v>
                 </c:pt>
@@ -6646,6 +6945,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6662,7 +6964,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6688,7 +6990,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.6541754912127103E-2"/>
+                  <c:x val="-0.12379278464016309"/>
                   <c:y val="-4.8576480023330419E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -6710,8 +7012,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.80446045396753E-4"/>
-                  <c:y val="-5.3206109652960049E-2"/>
+                  <c:x val="-0.13485681554104309"/>
+                  <c:y val="-5.7835739282589678E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6732,8 +7034,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.2360003858265853E-3"/>
-                  <c:y val="-3.0057961504811898E-2"/>
+                  <c:x val="-7.6204601809230403E-3"/>
+                  <c:y val="-9.487277631962672E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6747,6 +7049,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-513C-4306-9A4A-E2E10BE217A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.833764024693677E-2"/>
+                  <c:y val="-6.9098133566637505E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9EFD-43FA-8007-4B3EBB825EE6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6809,9 +7133,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$45:$K$47</c:f>
+              <c:f>Sheet1!$N$45:$N$48</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -6820,16 +7144,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$45:$N$47</c:f>
+              <c:f>Sheet1!$Q$45:$Q$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.24299999999999999</c:v>
                 </c:pt>
@@ -6838,6 +7165,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18099999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6846,6 +7176,415 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-513C-4306-9A4A-E2E10BE217A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="320468848"/>
+        <c:axId val="320468432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="320468848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320468432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="320468432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320468848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>case_study </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(pitch)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pro-karykis -- karykis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$52:$N$55</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2-grams</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-grams</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$52:$O$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C22A-4CC4-ABFF-C85273078A3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7366,6 +8105,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -11494,17 +12273,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>267432</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>501893</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -11534,13 +12829,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>300721</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -11572,13 +12867,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>394137</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>83945</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>82769</xdr:rowOff>
@@ -11610,13 +12905,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>153865</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>451806</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>112835</xdr:rowOff>
@@ -11648,13 +12943,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>278423</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>512884</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>178777</xdr:rowOff>
@@ -11686,14 +12981,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14655</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>329711</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>178777</xdr:rowOff>
     </xdr:to>
@@ -11724,13 +13019,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>100744</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -11762,13 +13057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>148828</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>463886</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>16668</xdr:rowOff>
@@ -11798,11 +13093,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>465783</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>48987</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AAEF89-B2E2-47A7-9773-4501E8E5B674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12098,15 +13431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A346A115-14B5-481B-955F-3ACECE3B790A}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44:Z45"/>
+    <sheetView tabSelected="1" topLeftCell="M25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -12114,32 +13447,35 @@
     <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="1"/>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="O1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -12159,19 +13495,19 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -12195,21 +13531,21 @@
       <c r="H3" s="2">
         <v>10.69</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2">
+      <c r="O3" s="2">
         <v>0.39900000000000002</v>
       </c>
-      <c r="M3" s="2">
+      <c r="P3" s="2">
         <v>0.23100000000000001</v>
       </c>
-      <c r="N3" s="2">
+      <c r="Q3" s="2">
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -12231,21 +13567,21 @@
       <c r="H4" s="2">
         <v>29.2</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2">
+      <c r="O4" s="2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="M4" s="2">
+      <c r="P4" s="2">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N4" s="2">
+      <c r="Q4" s="2">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -12267,20 +13603,56 @@
       <c r="H5" s="2">
         <v>33.520000000000003</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="N5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2">
+      <c r="O5" s="2">
         <v>0.28199999999999997</v>
       </c>
-      <c r="M5" s="2">
+      <c r="P5" s="2">
         <v>0.214</v>
       </c>
-      <c r="N5" s="2">
+      <c r="Q5" s="2">
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>83.2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>59.13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>84.43</v>
+      </c>
+      <c r="F6" s="2">
+        <v>82.41</v>
+      </c>
+      <c r="G6" s="2">
+        <v>57.59</v>
+      </c>
+      <c r="H6" s="2">
+        <v>80.62</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.222</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -12300,19 +13672,19 @@
       <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -12336,21 +13708,21 @@
       <c r="H9" s="2">
         <v>3.81</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="2">
+      <c r="O9" s="2">
         <v>0.27700000000000002</v>
       </c>
-      <c r="M9" s="2">
+      <c r="P9" s="2">
         <v>0.16300000000000001</v>
       </c>
-      <c r="N9" s="2">
+      <c r="Q9" s="2">
         <v>0.252</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -12372,21 +13744,21 @@
       <c r="H10" s="2">
         <v>16.47</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="2">
+      <c r="O10" s="2">
         <v>0.22800000000000001</v>
       </c>
-      <c r="M10" s="2">
+      <c r="P10" s="2">
         <v>0.184</v>
       </c>
-      <c r="N10" s="2">
+      <c r="Q10" s="2">
         <v>0.248</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -12408,20 +13780,56 @@
       <c r="H11" s="2">
         <v>38.61</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="2">
+      <c r="O11" s="2">
         <v>0.20599999999999999</v>
       </c>
-      <c r="M11" s="2">
+      <c r="P11" s="2">
         <v>0.18099999999999999</v>
       </c>
-      <c r="N11" s="2">
+      <c r="Q11" s="2">
         <v>0.215</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>56.55</v>
+      </c>
+      <c r="D12" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="F12" s="2">
+        <v>56.91</v>
+      </c>
+      <c r="G12" s="2">
+        <v>39.54</v>
+      </c>
+      <c r="H12" s="2">
+        <v>61.75</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
         <v>2</v>
@@ -12441,128 +13849,164 @@
       <c r="H14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2">
-        <v>5.2</v>
+        <v>4.95</v>
       </c>
       <c r="D15" s="2">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="E15" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="F15" s="2">
-        <v>4.58</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="G15" s="2">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="H15" s="2">
         <v>3.89</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="2">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.189</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Q15" s="2">
         <v>0.308</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>19.61</v>
+        <v>19.36</v>
       </c>
       <c r="D16" s="2">
-        <v>7.12</v>
+        <v>6.82</v>
       </c>
       <c r="E16" s="2">
         <v>16.670000000000002</v>
       </c>
       <c r="F16" s="2">
-        <v>18.77</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="G16" s="2">
-        <v>6.8</v>
+        <v>6.54</v>
       </c>
       <c r="H16" s="2">
         <v>16.27</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="2">
-        <v>0.309</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.191</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="Q16" s="2">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>43.7</v>
+        <v>43.27</v>
       </c>
       <c r="D17" s="2">
-        <v>18.850000000000001</v>
+        <v>18.27</v>
       </c>
       <c r="E17" s="2">
         <v>41.16</v>
       </c>
       <c r="F17" s="2">
-        <v>45.34</v>
+        <v>44.72</v>
       </c>
       <c r="G17" s="2">
-        <v>18.36</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="H17" s="2">
         <v>41.53</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="2">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Q17" s="2">
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>73.73</v>
+      </c>
+      <c r="D18" s="2">
+        <v>32.82</v>
+      </c>
+      <c r="E18" s="2">
+        <v>75.260000000000005</v>
+      </c>
+      <c r="F18" s="2">
+        <v>75.25</v>
+      </c>
+      <c r="G18" s="2">
+        <v>32.17</v>
+      </c>
+      <c r="H18" s="2">
+        <v>75.16</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.221</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
@@ -12582,19 +14026,19 @@
       <c r="H20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="3" t="s">
+      <c r="N20" s="2"/>
+      <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -12618,21 +14062,21 @@
       <c r="H21" s="2">
         <v>9.7100000000000009</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="2">
+      <c r="O21" s="2">
         <v>0.42699999999999999</v>
       </c>
-      <c r="M21" s="2">
+      <c r="P21" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="N21" s="2">
+      <c r="Q21" s="2">
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -12654,21 +14098,21 @@
       <c r="H22" s="2">
         <v>36.68</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="2">
+      <c r="O22" s="2">
         <v>0.371</v>
       </c>
-      <c r="M22" s="2">
+      <c r="P22" s="2">
         <v>0.19400000000000001</v>
       </c>
-      <c r="N22" s="2">
+      <c r="Q22" s="2">
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -12690,20 +14134,56 @@
       <c r="H23" s="2">
         <v>71.73</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="2">
+      <c r="O23" s="2">
         <v>0.28299999999999997</v>
       </c>
-      <c r="M23" s="2">
+      <c r="P23" s="2">
         <v>0.183</v>
       </c>
-      <c r="N23" s="2">
+      <c r="Q23" s="2">
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>88.16</v>
+      </c>
+      <c r="D24" s="2">
+        <v>41.72</v>
+      </c>
+      <c r="E24" s="2">
+        <v>98.83</v>
+      </c>
+      <c r="F24" s="2">
+        <v>88.72</v>
+      </c>
+      <c r="G24" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>96.08</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
         <v>2</v>
@@ -12723,19 +14203,19 @@
       <c r="H26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3" t="s">
+      <c r="N26" s="2"/>
+      <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -12759,21 +14239,21 @@
       <c r="H27" s="2">
         <v>7.89</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="2">
+      <c r="O27" s="2">
         <v>0.38500000000000001</v>
       </c>
-      <c r="M27" s="2">
+      <c r="P27" s="2">
         <v>0.23300000000000001</v>
       </c>
-      <c r="N27" s="2">
+      <c r="Q27" s="2">
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
@@ -12795,21 +14275,21 @@
       <c r="H28" s="2">
         <v>25.33</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="2">
+      <c r="O28" s="2">
         <v>0.33200000000000002</v>
       </c>
-      <c r="M28" s="2">
+      <c r="P28" s="2">
         <v>0.253</v>
       </c>
-      <c r="N28" s="2">
+      <c r="Q28" s="2">
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
@@ -12831,20 +14311,56 @@
       <c r="H29" s="2">
         <v>51.64</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="2">
+      <c r="O29" s="2">
         <v>0.27</v>
       </c>
-      <c r="M29" s="2">
+      <c r="P29" s="2">
         <v>0.248</v>
       </c>
-      <c r="N29" s="2">
+      <c r="Q29" s="2">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <v>67.62</v>
+      </c>
+      <c r="D30" s="2">
+        <v>47.79</v>
+      </c>
+      <c r="E30" s="2">
+        <v>73.97</v>
+      </c>
+      <c r="F30" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G30" s="2">
+        <v>47.46</v>
+      </c>
+      <c r="H30" s="2">
+        <v>73.48</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
         <v>2</v>
@@ -12864,19 +14380,25 @@
       <c r="H32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="3" t="s">
+      <c r="N32" s="2"/>
+      <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="S32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -12886,35 +14408,41 @@
         <v>4.79</v>
       </c>
       <c r="D33" s="2">
-        <v>1.19</v>
+        <v>0.79</v>
       </c>
       <c r="E33" s="2">
-        <v>5.31</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F33" s="2">
         <v>4.51</v>
       </c>
       <c r="G33" s="2">
-        <v>1.04</v>
+        <v>0.69</v>
       </c>
       <c r="H33" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="K33" s="3" t="s">
+        <v>4.75</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="2">
+      <c r="O33" s="2">
         <v>0.34200000000000003</v>
       </c>
-      <c r="M33" s="2">
-        <v>0.157</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.33200000000000002</v>
+      <c r="P33" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
@@ -12922,35 +14450,35 @@
         <v>21.52</v>
       </c>
       <c r="D34" s="2">
-        <v>5.93</v>
+        <v>5.33</v>
       </c>
       <c r="E34" s="2">
-        <v>20.99</v>
+        <v>20.64</v>
       </c>
       <c r="F34" s="2">
         <v>19.91</v>
       </c>
       <c r="G34" s="2">
-        <v>5.6</v>
+        <v>5.08</v>
       </c>
       <c r="H34" s="2">
-        <v>20.85</v>
-      </c>
-      <c r="K34" s="3" t="s">
+        <v>20.55</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="2">
+      <c r="O34" s="2">
         <v>0.308</v>
       </c>
-      <c r="M34" s="2">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0.28399999999999997</v>
+      <c r="P34" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
@@ -12958,34 +14486,70 @@
         <v>50.72</v>
       </c>
       <c r="D35" s="2">
-        <v>18.63</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="E35" s="2">
-        <v>47.83</v>
+        <v>49.04</v>
       </c>
       <c r="F35" s="2">
         <v>50.45</v>
       </c>
       <c r="G35" s="2">
-        <v>18.149999999999999</v>
+        <v>17.59</v>
       </c>
       <c r="H35" s="2">
-        <v>48.63</v>
-      </c>
-      <c r="K35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="2">
+      <c r="O35" s="2">
         <v>0.26600000000000001</v>
       </c>
-      <c r="M35" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0.24299999999999999</v>
+      <c r="P35" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.253</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2">
+        <v>79.37</v>
+      </c>
+      <c r="D36" s="2">
+        <v>34.65</v>
+      </c>
+      <c r="E36" s="2">
+        <v>77.72</v>
+      </c>
+      <c r="F36" s="2">
+        <v>80</v>
+      </c>
+      <c r="G36" s="2">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="H36" s="2">
+        <v>79.42</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.216</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
         <v>2</v>
@@ -13005,19 +14569,19 @@
       <c r="H38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="3" t="s">
+      <c r="N38" s="2"/>
+      <c r="O38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -13041,21 +14605,21 @@
       <c r="H39" s="2">
         <v>7.56</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="2">
+      <c r="O39" s="2">
         <v>0.42</v>
       </c>
-      <c r="M39" s="2">
+      <c r="P39" s="2">
         <v>0.21299999999999999</v>
       </c>
-      <c r="N39" s="2">
+      <c r="Q39" s="2">
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
@@ -13077,21 +14641,21 @@
       <c r="H40" s="2">
         <v>31.11</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="2">
+      <c r="O40" s="2">
         <v>0.38100000000000001</v>
       </c>
-      <c r="M40" s="2">
+      <c r="P40" s="2">
         <v>0.311</v>
       </c>
-      <c r="N40" s="2">
+      <c r="Q40" s="2">
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
       <c r="B41" s="3" t="s">
         <v>14</v>
       </c>
@@ -13113,20 +14677,56 @@
       <c r="H41" s="2">
         <v>68.14</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="2">
+      <c r="O41" s="2">
         <v>0.309</v>
       </c>
-      <c r="M41" s="2">
+      <c r="P41" s="2">
         <v>0.28100000000000003</v>
       </c>
-      <c r="N41" s="2">
+      <c r="Q41" s="2">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2">
+        <v>88.94</v>
+      </c>
+      <c r="D42" s="2">
+        <v>61.39</v>
+      </c>
+      <c r="E42" s="2">
+        <v>98.54</v>
+      </c>
+      <c r="F42" s="2">
+        <v>88.96</v>
+      </c>
+      <c r="G42" s="2">
+        <v>57.72</v>
+      </c>
+      <c r="H42" s="2">
+        <v>96.77</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
         <v>2</v>
@@ -13146,32 +14746,32 @@
       <c r="H44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="3" t="s">
+      <c r="N44" s="2"/>
+      <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P44" s="10" t="s">
+      <c r="S44" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -13195,54 +14795,54 @@
       <c r="H45" s="2">
         <v>3.56</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="2">
+      <c r="O45" s="2">
         <v>0.248</v>
       </c>
-      <c r="M45" s="2">
+      <c r="P45" s="2">
         <v>0.157</v>
       </c>
-      <c r="N45" s="2">
+      <c r="Q45" s="2">
         <v>0.24299999999999999</v>
       </c>
-      <c r="P45" s="4">
+      <c r="S45" s="4">
         <v>0</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="T45" s="4">
         <v>0.1</v>
       </c>
-      <c r="R45" s="4">
+      <c r="U45" s="4">
         <v>0.2</v>
       </c>
-      <c r="S45" s="4">
+      <c r="V45" s="4">
         <v>0.3</v>
       </c>
-      <c r="T45" s="4">
+      <c r="W45" s="4">
         <v>0.4</v>
       </c>
-      <c r="U45" s="4">
+      <c r="X45" s="4">
         <v>0.5</v>
       </c>
-      <c r="V45" s="4">
+      <c r="Y45" s="4">
         <v>0.6</v>
       </c>
-      <c r="W45" s="4">
+      <c r="Z45" s="4">
         <v>0.7</v>
       </c>
-      <c r="X45" s="4">
+      <c r="AA45" s="4">
         <v>0.8</v>
       </c>
-      <c r="Y45" s="4">
+      <c r="AB45" s="4">
         <v>0.9</v>
       </c>
-      <c r="Z45" s="4">
+      <c r="AC45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
@@ -13264,21 +14864,21 @@
       <c r="H46" s="2">
         <v>17.149999999999999</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L46" s="2">
+      <c r="O46" s="2">
         <v>0.248</v>
       </c>
-      <c r="M46" s="2">
+      <c r="P46" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="N46" s="2">
+      <c r="Q46" s="2">
         <v>0.252</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
       <c r="B47" s="3" t="s">
         <v>14</v>
       </c>
@@ -13300,34 +14900,218 @@
       <c r="H47" s="2">
         <v>42.84</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="2">
+      <c r="O47" s="2">
         <v>0.22</v>
       </c>
-      <c r="M47" s="2">
+      <c r="P47" s="2">
         <v>0.17599999999999999</v>
       </c>
-      <c r="N47" s="2">
+      <c r="Q47" s="2">
         <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2">
+        <v>70.13</v>
+      </c>
+      <c r="D48" s="2">
+        <v>51.95</v>
+      </c>
+      <c r="E48" s="2">
+        <v>74.78</v>
+      </c>
+      <c r="F48" s="2">
+        <v>69.19</v>
+      </c>
+      <c r="G48" s="2">
+        <v>50.58</v>
+      </c>
+      <c r="H48" s="2">
+        <v>72.56</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2">
+        <v>9.24</v>
+      </c>
+      <c r="F53" s="2">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="2">
+        <v>22.57</v>
+      </c>
+      <c r="F54" s="2">
+        <v>23.92</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="2">
+        <v>35.520000000000003</v>
+      </c>
+      <c r="F55" s="2">
+        <v>36.86</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0.158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="P44:Z44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A3:A5"/>
+  <mergeCells count="12">
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="S44:AC44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
-  <conditionalFormatting sqref="P45:U45 L45:N47 L39:N41 L33:N35 L27:N29 L21:N23 L15:N17 L9:N11 L3:N5">
+  <conditionalFormatting sqref="S45:X45 O45:Q47 O39:Q41 O33:Q35 O27:Q29 O21:Q23 O15:Q17 O9:Q11 O3:Q5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:Q12 S45:X45">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:Q30 S45:X45">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33:Q36 S45:X45">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O45:Q48 S45:X45">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O52:O55 S45:X45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -13348,7 +15132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464147A-4ECD-4B1E-8457-11B58279E28B}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D44" activeCellId="8" sqref="D2:D5 D8:D11 D14:D17 D20:D23 D26:D29 D32:D35 D38:D40 D41 D44:D47"/>
     </sheetView>
   </sheetViews>
@@ -13382,21 +15166,21 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -13989,19 +15773,19 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
